--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/06,25/26,06,25 ПОКОМ ПРС КИ ЛП/Заказ 26,06,25.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/06,25/26,06,25 ПОКОМ ПРС КИ ЛП/Заказ 26,06,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\26,06,25 ПОКОМ ПРС КИ ЛП\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\06,25\26,06,25 ПОКОМ ПРС КИ ЛП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D58EC69-EFA7-43D2-B433-69489B61EBE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FCBD73-3335-439F-B533-86593BEDE97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$B$3:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Товар</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 100  Сосиски Баварушки, 0.6кг, БАВАРУШКА ПОКОМ, шт</t>
-  </si>
-  <si>
-    <t>заказ, шт</t>
-  </si>
-  <si>
-    <t>кооф</t>
-  </si>
-  <si>
-    <t>ВЕС</t>
   </si>
   <si>
     <t>нет в бланке</t>
@@ -1588,7 +1579,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1622,15 +1613,6 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="4" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
@@ -1794,7 +1776,7 @@
         <v>250</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="5"/>
@@ -2194,7 +2176,7 @@
         <v>108</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,7 +2235,7 @@
         <v>240</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" s="10"/>
     </row>
@@ -2265,7 +2247,7 @@
         <v>300</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F37" s="10"/>
     </row>
@@ -2301,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
